--- a/Security Requirement/Security Requirement.xlsx
+++ b/Security Requirement/Security Requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF7BD768-DC46-424F-9BEB-ED3A9E769A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365FFF3-6B1A-49B6-A539-8E26F9E8C957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Security Requirement" sheetId="6" r:id="rId1"/>
